--- a/biology/Botanique/Habenaria_batesii/Habenaria_batesii.xlsx
+++ b/biology/Botanique/Habenaria_batesii/Habenaria_batesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Habenaria batesii la Croix est une espèce de plantes de la famille des Orchidaceae et du genre Habenaria. Elle est endémique du Cameroun. L'espèce a été décrite en octobre 1895 à partir d'une collecte à Efulen, situé près d'Ebolowa, sur la route qui lie Lolodorf à Ebolowa dans la région du Sud au Cameroun. 
-En octobre 2001, Ben Pollard a ensuite collecté un spécimen de l'espèce à Enyandong (Bangem) et sur les Monts Bakossi dans la région du Sud-Ouest. En raison de la croissance démographique et du développement de l'agriculture des lieux de présence de l'espèce, elle est classée en danger critique d'extinction selon le critère B de l'UICN[3].
+En octobre 2001, Ben Pollard a ensuite collecté un spécimen de l'espèce à Enyandong (Bangem) et sur les Monts Bakossi dans la région du Sud-Ouest. En raison de la croissance démographique et du développement de l'agriculture des lieux de présence de l'espèce, elle est classée en danger critique d'extinction selon le critère B de l'UICN.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique batesii rend hommage au naturaliste américain George Latimer Bates, collecteur de plantes au sud du Cameroun à la fin du XIXe siècle.
 </t>
